--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_04_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="505">
   <si>
     <t>zh_CN</t>
   </si>
@@ -1040,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]If so, are we currently heading 'from the noon to the twilight?' Quite a poetic ring, actually.
+    <t xml:space="preserve">[name="Mr. Nothing"]If so, are we currently heading 'from the noon to the twilight?' Quite a poetic ring, actually.
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Master, I commend your talent!
+    <t xml:space="preserve">[name="Mr. Nothing"]Master, I commend your talent!
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Th—There's a child there!
+    <t xml:space="preserve">[name="Mr. Nothing"]Th—There's a child there!
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]She won't make it!
+    <t xml:space="preserve">[name="Mr. Nothing"]She won't make it!
 </t>
   </si>
   <si>
@@ -1136,11 +1136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Whoa, there, too close for comfort!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Are you okay?
+    <t xml:space="preserve">[name="Mr. Nothing"]Whoa, there, too close for comfort!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Are you okay?
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Just... just now, did something stab that creature in the throat...?
+    <t xml:space="preserve">[name="Mr. Nothing"]Just... just now, did something stab that creature in the throat...?
 </t>
   </si>
   <si>
@@ -1156,7 +1156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Where—Where is she?
+    <t xml:space="preserve">[name="Mr. Nothing"]Where—Where is she?
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]B—But how do we bring this young girl with us?
+    <t xml:space="preserve">[name="Mr. Nothing"]B—But how do we bring this young girl with us?
 </t>
   </si>
   <si>
@@ -1180,11 +1180,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Verily! As if I couldn't!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]However—I really cannot bear to cast off my benefactors and take refuge alone! The fact I cannot accompany my benefactors in lopping off heads and spilling fresh blood is a true shame—
+    <t xml:space="preserve">[name="Mr. Nothing"]Verily! As if I couldn't!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]However—I really cannot bear to cast off my benefactors and take refuge alone! The fact I cannot accompany my benefactors in lopping off heads and spilling fresh blood is a true shame—
 </t>
   </si>
   <si>
@@ -1192,11 +1192,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ahahah... ah... alright, very well now. Very well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Young miss, would you care to come with me?
+    <t xml:space="preserve">[name="Mr. Nothing"]Ahahah... ah... alright, very well now. Very well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Young miss, would you care to come with me?
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I'll take you to find her, okay?
+    <t xml:space="preserve">[name="Mr. Nothing"]I'll take you to find her, okay?
 </t>
   </si>
   <si>
@@ -1212,7 +1212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ahem. Benefactor, shall I depart for now then?
+    <t xml:space="preserve">[name="Mr. Nothing"]Ahem. Benefactor, shall I depart for now then?
 </t>
   </si>
   <si>
@@ -1760,6 +1760,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">[name="묵량"]크으아!
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="사가"]유부튀김!
 </t>
   </si>
@@ -1872,7 +1876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]네?
+    <t xml:space="preserve">[name="라바"]뭐?
 </t>
   </si>
   <si>
@@ -1960,7 +1964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="상점 주인"]……
+    <t xml:space="preserve">[name="전당포 주인"]……
 </t>
   </si>
   <si>
@@ -1968,15 +1972,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="상점 주인"]……알았어, 알겠으니까 그렇게 흥분하지 말라고.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="상점 주인"]그러게 왜 사람들을 놀라게 했어? 그 여자가 뭐라고 말했기에?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="상점 주인"]아…… 그런 거였나…… 여전하네.
+    <t xml:space="preserve">[name="전당포 주인"]……알았어, 알겠으니까 그렇게 흥분하지 말라고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="전당포 주인"]그러게 왜 사람들을 놀라게 했어? 그 여자가 뭐라고 말했기에?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="전당포 주인"]아…… 그런 거였나…… 여전하네.
 </t>
   </si>
   <si>
@@ -1984,7 +1988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="상점 주인"]……가.
+    <t xml:space="preserve">[name="전당포 주인"]……가.
 </t>
   </si>
   <si>
@@ -1992,7 +1996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="상점 주인"]난 괜찮아…… 이분이 그?
+    <t xml:space="preserve">[name="전당포 주인"]난 괜찮아…… 이분이 그?
 </t>
   </si>
   <si>
@@ -2000,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="상점 주인"]만나서 반갑습니다.
+    <t xml:space="preserve">[name="전당포 주인"]만나서 반갑습니다.
 </t>
   </si>
   <si>
@@ -3240,7 +3244,7 @@
         <v>310</v>
       </c>
       <c r="D61" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3254,7 +3258,7 @@
         <v>312</v>
       </c>
       <c r="D62" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3268,7 +3272,7 @@
         <v>313</v>
       </c>
       <c r="D63" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3282,7 +3286,7 @@
         <v>314</v>
       </c>
       <c r="D64" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3296,7 +3300,7 @@
         <v>315</v>
       </c>
       <c r="D65" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3310,7 +3314,7 @@
         <v>316</v>
       </c>
       <c r="D66" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3324,7 +3328,7 @@
         <v>317</v>
       </c>
       <c r="D67" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3338,7 +3342,7 @@
         <v>318</v>
       </c>
       <c r="D68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3352,7 +3356,7 @@
         <v>319</v>
       </c>
       <c r="D69" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3366,7 +3370,7 @@
         <v>320</v>
       </c>
       <c r="D70" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3380,7 +3384,7 @@
         <v>321</v>
       </c>
       <c r="D71" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3394,7 +3398,7 @@
         <v>322</v>
       </c>
       <c r="D72" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3408,7 +3412,7 @@
         <v>323</v>
       </c>
       <c r="D73" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3422,7 +3426,7 @@
         <v>324</v>
       </c>
       <c r="D74" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3436,7 +3440,7 @@
         <v>325</v>
       </c>
       <c r="D75" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3450,7 +3454,7 @@
         <v>326</v>
       </c>
       <c r="D76" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3478,7 +3482,7 @@
         <v>327</v>
       </c>
       <c r="D78" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3492,7 +3496,7 @@
         <v>328</v>
       </c>
       <c r="D79" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3506,7 +3510,7 @@
         <v>329</v>
       </c>
       <c r="D80" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3520,7 +3524,7 @@
         <v>330</v>
       </c>
       <c r="D81" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3534,7 +3538,7 @@
         <v>331</v>
       </c>
       <c r="D82" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3548,7 +3552,7 @@
         <v>332</v>
       </c>
       <c r="D83" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3562,7 +3566,7 @@
         <v>333</v>
       </c>
       <c r="D84" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3576,7 +3580,7 @@
         <v>334</v>
       </c>
       <c r="D85" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3590,7 +3594,7 @@
         <v>335</v>
       </c>
       <c r="D86" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3604,7 +3608,7 @@
         <v>336</v>
       </c>
       <c r="D87" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3618,7 +3622,7 @@
         <v>337</v>
       </c>
       <c r="D88" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3632,7 +3636,7 @@
         <v>338</v>
       </c>
       <c r="D89" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3646,7 +3650,7 @@
         <v>339</v>
       </c>
       <c r="D90" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3660,7 +3664,7 @@
         <v>340</v>
       </c>
       <c r="D91" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3674,7 +3678,7 @@
         <v>341</v>
       </c>
       <c r="D92" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3688,7 +3692,7 @@
         <v>342</v>
       </c>
       <c r="D93" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3702,7 +3706,7 @@
         <v>343</v>
       </c>
       <c r="D94" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3716,7 +3720,7 @@
         <v>344</v>
       </c>
       <c r="D95" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3730,7 +3734,7 @@
         <v>345</v>
       </c>
       <c r="D96" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3744,7 +3748,7 @@
         <v>346</v>
       </c>
       <c r="D97" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3758,7 +3762,7 @@
         <v>347</v>
       </c>
       <c r="D98" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3772,7 +3776,7 @@
         <v>348</v>
       </c>
       <c r="D99" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3786,7 +3790,7 @@
         <v>349</v>
       </c>
       <c r="D100" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3800,7 +3804,7 @@
         <v>350</v>
       </c>
       <c r="D101" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3814,7 +3818,7 @@
         <v>351</v>
       </c>
       <c r="D102" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3828,7 +3832,7 @@
         <v>352</v>
       </c>
       <c r="D103" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3842,7 +3846,7 @@
         <v>353</v>
       </c>
       <c r="D104" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3856,7 +3860,7 @@
         <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3870,7 +3874,7 @@
         <v>355</v>
       </c>
       <c r="D106" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3884,7 +3888,7 @@
         <v>356</v>
       </c>
       <c r="D107" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3898,7 +3902,7 @@
         <v>357</v>
       </c>
       <c r="D108" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3912,7 +3916,7 @@
         <v>358</v>
       </c>
       <c r="D109" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3926,7 +3930,7 @@
         <v>359</v>
       </c>
       <c r="D110" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3940,7 +3944,7 @@
         <v>360</v>
       </c>
       <c r="D111" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3954,7 +3958,7 @@
         <v>361</v>
       </c>
       <c r="D112" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3968,7 +3972,7 @@
         <v>362</v>
       </c>
       <c r="D113" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3982,7 +3986,7 @@
         <v>363</v>
       </c>
       <c r="D114" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3996,7 +4000,7 @@
         <v>364</v>
       </c>
       <c r="D115" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4010,7 +4014,7 @@
         <v>365</v>
       </c>
       <c r="D116" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4024,7 +4028,7 @@
         <v>366</v>
       </c>
       <c r="D117" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4038,7 +4042,7 @@
         <v>367</v>
       </c>
       <c r="D118" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4052,7 +4056,7 @@
         <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4066,7 +4070,7 @@
         <v>329</v>
       </c>
       <c r="D120" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4080,7 +4084,7 @@
         <v>369</v>
       </c>
       <c r="D121" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4094,7 +4098,7 @@
         <v>370</v>
       </c>
       <c r="D122" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4108,7 +4112,7 @@
         <v>371</v>
       </c>
       <c r="D123" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4122,7 +4126,7 @@
         <v>372</v>
       </c>
       <c r="D124" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4136,7 +4140,7 @@
         <v>373</v>
       </c>
       <c r="D125" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4150,7 +4154,7 @@
         <v>374</v>
       </c>
       <c r="D126" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4164,7 +4168,7 @@
         <v>375</v>
       </c>
       <c r="D127" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4178,7 +4182,7 @@
         <v>376</v>
       </c>
       <c r="D128" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4192,7 +4196,7 @@
         <v>377</v>
       </c>
       <c r="D129" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4206,7 +4210,7 @@
         <v>378</v>
       </c>
       <c r="D130" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
